--- a/library/export_pos.xlsx
+++ b/library/export_pos.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pmis\AMS\library\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21864" windowHeight="9972"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -167,24 +162,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,14 +218,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -299,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,7 +375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,66 +563,66 @@
   <dimension ref="A6:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:I28"/>
+      <selection activeCell="D29" sqref="D29:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="12" t="s">
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="8" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -595,7 +636,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -609,7 +650,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -623,7 +664,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -635,7 +676,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -647,7 +688,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -661,7 +702,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -673,7 +714,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -687,7 +728,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -701,10 +742,10 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+    <row r="22" spans="1:10" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -713,99 +754,99 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -817,7 +858,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -831,7 +872,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -845,7 +886,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -857,7 +898,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -871,7 +912,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -883,7 +924,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -899,7 +940,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -911,7 +952,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
@@ -927,7 +968,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -943,7 +984,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -955,7 +996,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -967,7 +1008,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -981,7 +1022,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -993,7 +1034,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1005,7 +1046,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1017,7 +1058,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>

--- a/library/export_pos.xlsx
+++ b/library/export_pos.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FAS\library\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9972"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Republic of  the philippines</t>
   </si>
@@ -30,12 +35,6 @@
     <t>Region Office IV - A</t>
   </si>
   <si>
-    <t>BIDS AND AWARDS COMITEE</t>
-  </si>
-  <si>
-    <t>SHOPPING AND SMALL VALUE PROCUREMENT</t>
-  </si>
-  <si>
     <t>SUPPLIER NAME</t>
   </si>
   <si>
@@ -48,12 +47,6 @@
     <t>Dear Sir/Madam</t>
   </si>
   <si>
-    <t xml:space="preserve">May we invite you to submit your quotation/proposal for the following Request for Quotation </t>
-  </si>
-  <si>
-    <t>(RFQ):</t>
-  </si>
-  <si>
     <t>RFQ NO.</t>
   </si>
   <si>
@@ -66,12 +59,6 @@
     <t>End User</t>
   </si>
   <si>
-    <t xml:space="preserve">For further inquiries, you may contact the BAC Secretariat Office at (049) 827-3143 or </t>
-  </si>
-  <si>
-    <t>dilg4a.bac@gmail.com</t>
-  </si>
-  <si>
     <t>Thank you.</t>
   </si>
   <si>
@@ -94,13 +81,25 @@
   </si>
   <si>
     <t>Received by:</t>
+  </si>
+  <si>
+    <t>SHOPPING AND SMALL VALUE PROCUREMENT COMMITTEE</t>
+  </si>
+  <si>
+    <t>BIDS AND AWARDS COMMITTEE</t>
+  </si>
+  <si>
+    <t>For further inquiries, you may contact the BAC Secretariat Office at (049) 827-3143 or dilg4a.bac@gmail.com</t>
+  </si>
+  <si>
+    <t>May we invite you to submit your quotation/proposal for the following Request for Quotation (RFQ):</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +120,12 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -199,19 +204,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -231,15 +258,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -340,7 +358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -552,7 +570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -560,71 +578,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:J46"/>
+  <dimension ref="A6:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:I29"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -636,9 +654,9 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -650,9 +668,9 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -664,7 +682,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -676,7 +694,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -688,9 +706,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -702,7 +720,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -714,9 +732,9 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -728,12 +746,10 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+    <row r="21" spans="1:10" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -742,112 +758,114 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+    <row r="22" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+    <row r="23" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -858,9 +876,9 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>15</v>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -872,10 +890,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -886,7 +901,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -898,21 +913,23 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -924,67 +941,63 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>19</v>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="3" t="s">
-        <v>22</v>
+      <c r="F38" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -996,8 +1009,10 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1008,13 +1023,11 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1022,11 +1035,11 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1034,7 +1047,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1046,7 +1059,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1058,37 +1071,26 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="C10:H10"/>
-    <mergeCell ref="D25:I28"/>
-    <mergeCell ref="A25:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D24:I27"/>
+    <mergeCell ref="A24:C27"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:I28"/>
     <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:I22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/library/export_pos.xlsx
+++ b/library/export_pos.xlsx
@@ -99,6 +99,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,47 +220,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -581,64 +593,67 @@
   <dimension ref="A6:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="D24" sqref="D24:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="8.109375" style="2" customWidth="1"/>
+    <col min="3" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -759,17 +774,17 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -778,20 +793,20 @@
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -801,9 +816,9 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -813,9 +828,9 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -825,9 +840,9 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -837,17 +852,17 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -942,27 +957,31 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+      <c r="A36" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>13</v>
+      <c r="A37" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="3" t="s">
-        <v>16</v>
+      <c r="F37" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -970,16 +989,12 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1037,9 +1052,9 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1073,12 +1088,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="D24:I27"/>
-    <mergeCell ref="A24:C27"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:I28"/>
@@ -1088,6 +1097,12 @@
     <mergeCell ref="D22:I22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="D24:I27"/>
+    <mergeCell ref="A24:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/library/export_pos.xlsx
+++ b/library/export_pos.xlsx
@@ -92,7 +92,7 @@
     <t>For further inquiries, you may contact the BAC Secretariat Office at (049) 827-3143 or dilg4a.bac@gmail.com</t>
   </si>
   <si>
-    <t>May we invite you to submit your quotation/proposal for the following Request for Quotation (RFQ):</t>
+    <t>May we invite you to submit your quotation for the following Request for Quotation (RFQ):</t>
   </si>
 </sst>
 </file>
@@ -227,50 +227,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:I27"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,53 +607,53 @@
   <sheetData>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -774,95 +774,95 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1052,9 +1052,9 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1088,6 +1088,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="D24:I27"/>
+    <mergeCell ref="A24:C27"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:I28"/>
@@ -1097,12 +1103,6 @@
     <mergeCell ref="D22:I22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="D24:I27"/>
-    <mergeCell ref="A24:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/library/export_pos.xlsx
+++ b/library/export_pos.xlsx
@@ -227,6 +227,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -246,9 +261,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -256,18 +268,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:I23"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,53 +607,53 @@
   <sheetData>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -762,9 +762,9 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -774,25 +774,25 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -802,67 +802,67 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1052,9 +1052,9 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1088,12 +1088,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="D24:I27"/>
-    <mergeCell ref="A24:C27"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:I28"/>
@@ -1103,6 +1097,12 @@
     <mergeCell ref="D22:I22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="D24:I27"/>
+    <mergeCell ref="A24:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/library/export_pos.xlsx
+++ b/library/export_pos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FAS\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85782E49-921D-4453-AFEA-6BED93EBC413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9972"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +66,6 @@
     <t>Prepared by:</t>
   </si>
   <si>
-    <t>MARIA CONCEPCION A. GONZALES</t>
-  </si>
-  <si>
     <t xml:space="preserve">Head, BAC Secretariat                                                   </t>
   </si>
   <si>
@@ -93,16 +91,19 @@
   </si>
   <si>
     <t>May we invite you to submit your quotation for the following Request for Quotation (RFQ):</t>
+  </si>
+  <si>
+    <t>BEZALEEL O. SOLTURA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +130,13 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,17 +228,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -242,36 +280,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -301,7 +310,13 @@
     <xdr:ext cx="752475" cy="762000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -589,73 +604,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="2" customWidth="1"/>
-    <col min="3" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="16" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -669,7 +684,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -683,7 +698,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -697,7 +712,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -709,7 +724,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -721,7 +736,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -735,7 +750,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -747,9 +762,9 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -761,10 +776,10 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+    <row r="21" spans="1:10" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -773,99 +788,99 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -877,9 +892,9 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -891,7 +906,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
@@ -905,7 +920,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -916,7 +931,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -928,7 +943,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -937,14 +952,14 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -956,39 +971,39 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>13</v>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1000,7 +1015,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1012,7 +1027,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1024,9 +1039,9 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1038,7 +1053,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1050,11 +1065,11 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1062,7 +1077,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1074,7 +1089,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1088,6 +1103,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="D24:I27"/>
+    <mergeCell ref="A24:C27"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:I28"/>
@@ -1097,12 +1118,6 @@
     <mergeCell ref="D22:I22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="D24:I27"/>
-    <mergeCell ref="A24:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
